--- a/biology/Zoologie/Incilius_tutelarius/Incilius_tutelarius.xlsx
+++ b/biology/Zoologie/Incilius_tutelarius/Incilius_tutelarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incilius tutelarius est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incilius tutelarius est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 1 050 et 2 000 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 1 050 et 2 000 m d'altitude :
 au Mexique de la Sierra Chimalapa dans le sud-est de l'État d'Oaxaca à la Sierra Madre de Chiapas au Sud du Chiapas,
 dans l'ouest du Guatemala dans la Sierra Madre de Chiapas.
 </t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 76,2 mm et les femelles jusqu'à 103,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 76,2 mm et les femelles jusqu'à 103,6 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mendelson, 1997 : A New Species of Toad (Anura: Bufonidae) from the Pacific Highlands of Guatemala and Southern Mexico, with Comments on the Status of Bufo valliceps macrocristatus. Herpetologica, vol. 53, no 1, p. 14-30 (texte intégral).</t>
         </is>
